--- a/assets/others/《百家姓》姓的起源类型.xlsx
+++ b/assets/others/《百家姓》姓的起源类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/t5-2021-e/active-study/github.com/hustnzj/sinology_learning/assets/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A18DC2-1D20-CD48-ACFB-70697A4F303C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F8A00D-8139-1746-8DD7-ED6A7F11428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26840" activeTab="1" xr2:uid="{D5421D94-FC95-AB4B-AF5E-1DFA8DF35B20}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26840" xr2:uid="{D5421D94-FC95-AB4B-AF5E-1DFA8DF35B20}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="228">
   <si>
     <t>赵</t>
   </si>
@@ -73,9 +73,6 @@
     <t>周</t>
   </si>
   <si>
-    <t>避帝王名讳</t>
-  </si>
-  <si>
     <t>吴</t>
   </si>
   <si>
@@ -506,6 +503,225 @@
   </si>
   <si>
     <t>梁</t>
+  </si>
+  <si>
+    <t>杜</t>
+  </si>
+  <si>
+    <t>阮</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>闵</t>
+  </si>
+  <si>
+    <t>国君谥号</t>
+  </si>
+  <si>
+    <t>席</t>
+  </si>
+  <si>
+    <t>季</t>
+  </si>
+  <si>
+    <t>麻</t>
+  </si>
+  <si>
+    <t>强</t>
+  </si>
+  <si>
+    <t>贾</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>娄</t>
+  </si>
+  <si>
+    <t>危</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>童</t>
+  </si>
+  <si>
+    <t>颜</t>
+  </si>
+  <si>
+    <t>郭</t>
+  </si>
+  <si>
+    <t>梅</t>
+  </si>
+  <si>
+    <t>盛</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>刁</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>钟</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>邱</t>
+  </si>
+  <si>
+    <t>避名讳</t>
+  </si>
+  <si>
+    <t>骆</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>蔡</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>樊</t>
+  </si>
+  <si>
+    <t>胡</t>
+  </si>
+  <si>
+    <t>凌</t>
+  </si>
+  <si>
+    <t>霍</t>
+  </si>
+  <si>
+    <t>虞</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>柯</t>
+  </si>
+  <si>
+    <t>昝</t>
+  </si>
+  <si>
+    <t>管</t>
+  </si>
+  <si>
+    <t>卢</t>
+  </si>
+  <si>
+    <t>莫</t>
+  </si>
+  <si>
+    <t>经</t>
+  </si>
+  <si>
+    <t>房</t>
+  </si>
+  <si>
+    <t>裘</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>缪</t>
+  </si>
+  <si>
+    <t>古时同音</t>
+  </si>
+  <si>
+    <t>干</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>应</t>
+  </si>
+  <si>
+    <t>宗</t>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>宣</t>
+  </si>
+  <si>
+    <t>贲</t>
+  </si>
+  <si>
+    <t>邓</t>
+  </si>
+  <si>
+    <t>郁</t>
+  </si>
+  <si>
+    <t>单</t>
+  </si>
+  <si>
+    <t>杭</t>
+  </si>
+  <si>
+    <t>洪</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>诸</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>石</t>
+  </si>
+  <si>
+    <t>民族融合</t>
+  </si>
+  <si>
+    <t>崔</t>
+  </si>
+  <si>
+    <t>吉</t>
+  </si>
+  <si>
+    <t>钮</t>
+  </si>
+  <si>
+    <t>龚</t>
+  </si>
+  <si>
+    <t>程</t>
+  </si>
+  <si>
+    <t>嵇</t>
+  </si>
+  <si>
+    <t>音同</t>
   </si>
 </sst>
 </file>
@@ -593,34 +809,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <border>
         <left style="thin">
@@ -759,116 +948,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -877,143 +956,6 @@
         <vertAlign val="baseline"/>
         <sz val="16"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1069,13 +1011,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45499.893146759263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="165" xr:uid="{6613A909-EBE6-7540-AA86-E56BB4FC5A87}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45500.418867939814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="196" xr:uid="{6613A909-EBE6-7540-AA86-E56BB4FC5A87}">
   <cacheSource type="worksheet">
     <worksheetSource name="DynamicData"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="姓" numFmtId="0">
-      <sharedItems count="128">
+      <sharedItems count="151">
         <s v="赵"/>
         <s v="钱"/>
         <s v="孙"/>
@@ -1204,10 +1146,33 @@
         <s v="祝"/>
         <s v="董"/>
         <s v="梁"/>
+        <s v="杜"/>
+        <s v="阮"/>
+        <s v="蓝"/>
+        <s v="闵"/>
+        <s v="席"/>
+        <s v="季"/>
+        <s v="麻"/>
+        <s v="强"/>
+        <s v="贾"/>
+        <s v="路"/>
+        <s v="娄"/>
+        <s v="危"/>
+        <s v="江"/>
+        <s v="童"/>
+        <s v="颜"/>
+        <s v="郭"/>
+        <s v="梅"/>
+        <s v="盛"/>
+        <s v="林"/>
+        <s v="刁"/>
+        <s v="钟"/>
+        <s v="徐"/>
+        <s v="邱"/>
       </sharedItems>
     </cacheField>
     <cacheField name="起源类型" numFmtId="0">
-      <sharedItems containsBlank="1" count="22">
+      <sharedItems containsBlank="1" count="23">
         <s v="封邑"/>
         <s v="官职"/>
         <s v="先祖名"/>
@@ -1215,7 +1180,7 @@
         <s v="赐姓"/>
         <s v="避难"/>
         <s v="族名"/>
-        <s v="避帝王名讳"/>
+        <s v="避名讳"/>
         <s v="国名"/>
         <s v="王族后裔改姓"/>
         <s v="音讳"/>
@@ -1229,18 +1194,19 @@
         <m/>
         <s v="名人的姓" u="1"/>
         <s v="封地" u="1"/>
+        <s v="避帝王名讳" u="1"/>
         <s v="家族称" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="起源类型 2" numFmtId="0">
-      <sharedItems count="17">
+      <sharedItems count="20">
         <s v="封邑"/>
         <s v="官职"/>
         <s v="先祖"/>
         <s v="赐姓"/>
         <s v="避难"/>
         <s v="族名"/>
-        <s v="避帝王名讳"/>
+        <s v="避名讳"/>
         <s v="国名"/>
         <s v="王族后裔改姓"/>
         <s v="音讳"/>
@@ -1250,7 +1216,10 @@
         <s v="通假字"/>
         <s v="国都名"/>
         <s v="出生地"/>
+        <s v="国君谥号"/>
+        <s v="职业"/>
         <s v="官职名" u="1"/>
+        <s v="避帝王名讳" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1263,7 +1232,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="165">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="196">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2088,16 +2057,171 @@
     <x v="127"/>
     <x v="18"/>
     <x v="12"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="18"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="18"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="18"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="18"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="18"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="18"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="18"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="18"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="18"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="18"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="18"/>
+    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FADE024-F829-5F48-9DCE-0AC7F1677A45}" name="PivotTable1" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="姓" colHeaderCaption="起源类型">
-  <location ref="A3:R133" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FADE024-F829-5F48-9DCE-0AC7F1677A45}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="姓" colHeaderCaption="起源类型">
+  <location ref="A3:T156" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="129">
+      <items count="152">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2226,11 +2350,34 @@
         <item x="125"/>
         <item x="126"/>
         <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" sortType="ascending">
-      <items count="23">
+      <items count="24">
         <item x="2"/>
         <item x="15"/>
         <item x="14"/>
@@ -2241,7 +2388,7 @@
         <item x="8"/>
         <item x="1"/>
         <item x="12"/>
-        <item m="1" x="21"/>
+        <item m="1" x="22"/>
         <item m="1" x="20"/>
         <item x="0"/>
         <item x="16"/>
@@ -2249,6 +2396,7 @@
         <item x="9"/>
         <item x="4"/>
         <item x="7"/>
+        <item m="1" x="21"/>
         <item x="5"/>
         <item x="11"/>
         <item x="10"/>
@@ -2257,24 +2405,27 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="18">
+      <items count="21">
         <item x="2"/>
         <item x="7"/>
         <item x="1"/>
-        <item m="1" x="16"/>
+        <item m="1" x="18"/>
         <item x="0"/>
         <item x="12"/>
         <item x="11"/>
         <item x="5"/>
         <item x="8"/>
         <item x="3"/>
-        <item x="6"/>
+        <item m="1" x="19"/>
         <item x="4"/>
         <item x="10"/>
         <item x="9"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -2291,7 +2442,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="129">
+  <rowItems count="152">
     <i>
       <x/>
     </i>
@@ -2675,6 +2826,75 @@
     </i>
     <i>
       <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
     </i>
     <i t="grand">
       <x/>
@@ -2683,14 +2903,14 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="17">
+  <colItems count="19">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x/>
     </i>
     <i>
@@ -2706,7 +2926,10 @@
       <x v="11"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="9"/>
@@ -2715,22 +2938,25 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="14"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
       <x v="13"/>
     </i>
     <i>
       <x v="16"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -2740,54 +2966,54 @@
     <dataField name=" " fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="29">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="11">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="10">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="9">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2804,12 +3030,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}" name="DynamicData" displayName="DynamicData" ref="A1:C166" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="A1:C166" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}" name="DynamicData" displayName="DynamicData" ref="A1:C259" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:C259" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7E8823C1-B1D8-5045-ACD0-2142D9BBCFE3}" name="姓" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{DC84263E-F423-A146-95AF-6C63FDA51660}" name="起源类型" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{E287FD57-70F9-EC42-AB55-C218B2084DB0}" name="起源类型 2" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{7E8823C1-B1D8-5045-ACD0-2142D9BBCFE3}" name="姓" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{DC84263E-F423-A146-95AF-6C63FDA51660}" name="起源类型" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E287FD57-70F9-EC42-AB55-C218B2084DB0}" name="起源类型 2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3112,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A13CF5-A04D-5E49-9081-B03C157052AA}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3134,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,10 +3368,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -3178,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -3186,10 +3412,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -3197,10 +3423,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -3230,10 +3456,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -3241,10 +3467,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.35">
@@ -3252,70 +3478,70 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -3326,175 +3552,175 @@
     </row>
     <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -3502,187 +3728,187 @@
     </row>
     <row r="35" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -3690,15 +3916,15 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -3706,111 +3932,111 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -3818,103 +4044,103 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -3922,63 +4148,63 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>9</v>
@@ -3986,223 +4212,223 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -4210,39 +4436,39 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -4250,39 +4476,39 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -4290,23 +4516,23 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>9</v>
@@ -4314,247 +4540,247 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -4562,7 +4788,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -4570,26 +4796,770 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>56</v>
+      <c r="C167" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4603,13 +5573,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27DD485-606D-FD44-BE91-FAEDB4A34854}">
-  <dimension ref="A3:AL133"/>
+  <dimension ref="A3:AL156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C137" sqref="C137"/>
+      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4619,16 +5589,15 @@
     <col min="3" max="5" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -4651,13 +5620,11 @@
   <sheetData>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S3"/>
-      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -4682,58 +5649,62 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="Q4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S4"/>
-      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -4757,10 +5728,10 @@
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -4775,11 +5746,11 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -4823,11 +5794,11 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7">
         <v>2</v>
       </c>
-      <c r="S6"/>
-      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -4861,21 +5832,21 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
         <v>3</v>
       </c>
-      <c r="S7"/>
-      <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -4911,21 +5882,21 @@
         <v>1</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7">
         <v>3</v>
       </c>
-      <c r="S8"/>
-      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -4969,11 +5940,11 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7">
         <v>2</v>
       </c>
-      <c r="S9"/>
-      <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -4995,12 +5966,12 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -5015,11 +5986,11 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7">
-        <v>1</v>
-      </c>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7">
+        <v>1</v>
+      </c>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -5041,12 +6012,12 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5061,11 +6032,11 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7">
+        <v>1</v>
+      </c>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -5087,7 +6058,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -5103,15 +6074,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7">
-        <v>1</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1</v>
-      </c>
-      <c r="S12"/>
-      <c r="T12"/>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7">
+        <v>1</v>
+      </c>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -5133,12 +6104,12 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -5153,11 +6124,11 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7">
-        <v>1</v>
-      </c>
-      <c r="S13"/>
-      <c r="T13"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7">
+        <v>1</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -5179,12 +6150,12 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -5199,11 +6170,11 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7">
-        <v>1</v>
-      </c>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -5225,12 +6196,12 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7">
         <v>1</v>
@@ -5247,11 +6218,11 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7">
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7">
         <v>2</v>
       </c>
-      <c r="S15"/>
-      <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -5273,12 +6244,12 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -5293,11 +6264,11 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7">
-        <v>1</v>
-      </c>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -5319,12 +6290,12 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -5339,11 +6310,11 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7">
-        <v>1</v>
-      </c>
-      <c r="S17"/>
-      <c r="T17"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -5365,12 +6336,12 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5385,11 +6356,11 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7">
-        <v>1</v>
-      </c>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -5411,7 +6382,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -5433,11 +6404,11 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7">
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7">
         <v>2</v>
       </c>
-      <c r="S19"/>
-      <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -5459,12 +6430,12 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -5479,11 +6450,11 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7">
-        <v>1</v>
-      </c>
-      <c r="S20"/>
-      <c r="T20"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -5505,12 +6476,12 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5525,11 +6496,11 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7">
-        <v>1</v>
-      </c>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7">
+        <v>1</v>
+      </c>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -5551,12 +6522,12 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -5571,11 +6542,11 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7">
-        <v>1</v>
-      </c>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
@@ -5597,7 +6568,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5611,17 +6582,17 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
         <v>1</v>
       </c>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -5643,12 +6614,12 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7">
         <v>1</v>
       </c>
@@ -5665,11 +6636,11 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7">
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7">
         <v>2</v>
       </c>
-      <c r="S24"/>
-      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -5691,7 +6662,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5707,15 +6678,15 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25"/>
-      <c r="T25"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
@@ -5737,12 +6708,12 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -5757,11 +6728,11 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7">
-        <v>1</v>
-      </c>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7">
+        <v>1</v>
+      </c>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -5783,7 +6754,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5803,11 +6774,11 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7">
-        <v>1</v>
-      </c>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
@@ -5829,7 +6800,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5849,11 +6820,11 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7">
-        <v>1</v>
-      </c>
-      <c r="S28"/>
-      <c r="T28"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7">
+        <v>1</v>
+      </c>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -5875,7 +6846,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5895,11 +6866,11 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7">
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7">
         <v>2</v>
       </c>
-      <c r="S29"/>
-      <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
@@ -5921,12 +6892,12 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -5941,11 +6912,11 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7">
-        <v>1</v>
-      </c>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7">
+        <v>1</v>
+      </c>
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
@@ -5967,7 +6938,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5987,11 +6958,11 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7">
-        <v>1</v>
-      </c>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7">
+        <v>1</v>
+      </c>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
@@ -6013,12 +6984,12 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -6033,11 +7004,11 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7">
-        <v>1</v>
-      </c>
-      <c r="S32"/>
-      <c r="T32"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7">
+        <v>1</v>
+      </c>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
@@ -6059,7 +7030,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -6071,21 +7042,21 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="7">
-        <v>1</v>
-      </c>
-      <c r="K33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7">
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7">
         <v>2</v>
       </c>
-      <c r="S33"/>
-      <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
@@ -6107,12 +7078,12 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -6120,20 +7091,20 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7">
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7">
         <v>2</v>
       </c>
-      <c r="S34"/>
-      <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
@@ -6155,7 +7126,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -6177,11 +7148,11 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7">
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7">
         <v>2</v>
       </c>
-      <c r="S35"/>
-      <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
@@ -6203,7 +7174,7 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6223,11 +7194,11 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7">
-        <v>1</v>
-      </c>
-      <c r="S36"/>
-      <c r="T36"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7">
+        <v>1</v>
+      </c>
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
@@ -6249,12 +7220,12 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -6269,11 +7240,11 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="7">
-        <v>1</v>
-      </c>
-      <c r="S37"/>
-      <c r="T37"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7">
+        <v>1</v>
+      </c>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
@@ -6295,12 +7266,12 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -6315,11 +7286,11 @@
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="7">
-        <v>1</v>
-      </c>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7">
+        <v>1</v>
+      </c>
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
@@ -6341,12 +7312,12 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -6361,13 +7332,15 @@
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="7">
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -6378,27 +7351,29 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="7">
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7">
@@ -6415,13 +7390,15 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="7">
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -6443,13 +7420,15 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7">
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -6469,18 +7448,20 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7">
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="7">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -6495,18 +7476,20 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="7">
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7">
@@ -6523,18 +7506,20 @@
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="7">
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -6549,18 +7534,20 @@
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7">
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
       <c r="D47" s="7">
         <v>1</v>
       </c>
@@ -6577,18 +7564,20 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="7">
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -6603,18 +7592,20 @@
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="7">
-        <v>1</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -6629,18 +7620,20 @@
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="7">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7">
+        <v>1</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -6655,18 +7648,20 @@
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -6681,13 +7676,15 @@
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -6707,18 +7704,20 @@
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -6733,18 +7732,20 @@
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -6761,13 +7762,15 @@
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="7">
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -6787,18 +7790,20 @@
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -6813,18 +7818,20 @@
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -6839,13 +7846,15 @@
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -6865,13 +7874,15 @@
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -6881,23 +7892,25 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
       <c r="K59" s="7"/>
-      <c r="L59" s="7">
-        <v>1</v>
-      </c>
+      <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -6907,23 +7920,25 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="7">
-        <v>1</v>
-      </c>
-      <c r="K60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -6943,18 +7958,20 @@
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="7">
-        <v>1</v>
-      </c>
-      <c r="C62" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -6969,13 +7986,15 @@
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
-      <c r="R62" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -6985,28 +8004,30 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="J63" s="7">
+        <v>1</v>
+      </c>
       <c r="K63" s="7"/>
-      <c r="L63" s="7">
-        <v>1</v>
-      </c>
+      <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
-      <c r="R63" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="7">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7">
+        <v>1</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -7021,18 +8042,20 @@
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
-      <c r="R64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="7">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -7047,18 +8070,20 @@
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
-      <c r="R65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="7">
-        <v>1</v>
-      </c>
-      <c r="C66" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7">
+        <v>1</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -7073,13 +8098,15 @@
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -7099,18 +8126,20 @@
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7">
-        <v>1</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
@@ -7125,18 +8154,20 @@
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
-      <c r="R68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="7">
-        <v>1</v>
-      </c>
-      <c r="C69" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -7151,13 +8182,15 @@
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7177,18 +8210,20 @@
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
-      <c r="R70" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -7203,18 +8238,20 @@
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
-      <c r="R71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -7229,13 +8266,15 @@
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
-      <c r="R72" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7255,13 +8294,15 @@
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
-      <c r="R73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7281,13 +8322,15 @@
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
-      <c r="R74" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7307,13 +8350,15 @@
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
-      <c r="R75" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7333,18 +8378,20 @@
       <c r="O76" s="7"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
-      <c r="R76" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -7359,13 +8406,15 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
-      <c r="R77" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7385,18 +8434,20 @@
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
-      <c r="R78" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -7411,18 +8462,20 @@
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
-      <c r="R79" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B80" s="7">
-        <v>1</v>
-      </c>
-      <c r="C80" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -7437,18 +8490,20 @@
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
-      <c r="R80" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="7">
-        <v>1</v>
-      </c>
-      <c r="C81" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -7463,18 +8518,20 @@
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
-      <c r="R81" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="7">
-        <v>1</v>
-      </c>
-      <c r="C82" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7">
+        <v>1</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -7491,18 +8548,20 @@
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
-      <c r="R82" s="7">
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B83" s="7">
+        <v>1</v>
+      </c>
+      <c r="C83" s="7"/>
       <c r="D83" s="7">
         <v>1</v>
       </c>
@@ -7514,27 +8573,29 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7">
-        <v>1</v>
-      </c>
-      <c r="L83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7">
+        <v>1</v>
+      </c>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
-      <c r="R83" s="7">
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="7">
-        <v>1</v>
-      </c>
-      <c r="C84" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7">
+        <v>1</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -7551,13 +8612,15 @@
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
-      <c r="R84" s="7">
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -7577,18 +8640,20 @@
       <c r="O85" s="7"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
-      <c r="R85" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1</v>
+      </c>
+      <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -7603,18 +8668,20 @@
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
-      <c r="R86" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" s="7">
-        <v>1</v>
-      </c>
-      <c r="C87" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -7629,18 +8696,20 @@
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
-      <c r="R87" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="7">
-        <v>1</v>
-      </c>
-      <c r="C88" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7">
+        <v>1</v>
+      </c>
       <c r="D88" s="7">
         <v>1</v>
       </c>
@@ -7657,18 +8726,20 @@
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
-      <c r="R88" s="7">
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89" s="7">
-        <v>1</v>
-      </c>
-      <c r="C89" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -7683,18 +8754,20 @@
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
-      <c r="R89" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="7">
-        <v>1</v>
-      </c>
-      <c r="C90" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -7709,18 +8782,20 @@
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
-      <c r="R90" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B91" s="7">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -7735,13 +8810,15 @@
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
-      <c r="R91" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7761,13 +8838,15 @@
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
-      <c r="R92" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7787,13 +8866,15 @@
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
-      <c r="R93" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7813,18 +8894,20 @@
       <c r="O94" s="7"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
-      <c r="R94" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B95" s="7">
-        <v>1</v>
-      </c>
-      <c r="C95" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
       <c r="D95" s="7">
         <v>1</v>
       </c>
@@ -7841,13 +8924,15 @@
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
-      <c r="R95" s="7">
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -7867,18 +8952,20 @@
       <c r="O96" s="7"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
-      <c r="R96" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7">
-        <v>1</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B97" s="7">
+        <v>1</v>
+      </c>
+      <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -7893,13 +8980,15 @@
       <c r="O97" s="7"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
-      <c r="R97" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -7919,18 +9008,20 @@
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
-      <c r="R98" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" s="7">
-        <v>1</v>
-      </c>
-      <c r="C99" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
@@ -7945,18 +9036,20 @@
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
-      <c r="R99" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7">
-        <v>1</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B100" s="7">
+        <v>1</v>
+      </c>
+      <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -7971,13 +9064,15 @@
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
-      <c r="R100" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -7999,13 +9094,15 @@
       <c r="O101" s="7"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
-      <c r="R101" s="7">
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -8025,18 +9122,20 @@
       <c r="O102" s="7"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
-      <c r="R102" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B103" s="7">
-        <v>1</v>
-      </c>
-      <c r="C103" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -8051,18 +9150,20 @@
       <c r="O103" s="7"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
-      <c r="R103" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104" s="7">
-        <v>1</v>
-      </c>
-      <c r="C104" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7">
         <v>1</v>
@@ -8079,13 +9180,15 @@
       <c r="O104" s="7"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
-      <c r="R104" s="7">
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -8100,23 +9203,25 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
-      <c r="O105" s="7">
-        <v>1</v>
-      </c>
+      <c r="O105" s="7"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
-      <c r="R105" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R105" s="7"/>
+      <c r="S105" s="7">
+        <v>1</v>
+      </c>
+      <c r="T105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106" s="7">
-        <v>1</v>
-      </c>
-      <c r="C106" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7">
+        <v>1</v>
+      </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -8131,13 +9236,15 @@
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
-      <c r="R106" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8157,13 +9264,15 @@
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
-      <c r="R107" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B108" s="7">
         <v>1</v>
@@ -8185,18 +9294,20 @@
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
-      <c r="R108" s="7">
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B109" s="7">
-        <v>1</v>
-      </c>
-      <c r="C109" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
@@ -8211,13 +9322,15 @@
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
-      <c r="R109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B110" s="7">
         <v>1</v>
@@ -8239,18 +9352,20 @@
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
-      <c r="R110" s="7">
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B111" s="7">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7"/>
       <c r="D111" s="7">
         <v>1</v>
       </c>
@@ -8267,18 +9382,20 @@
       <c r="O111" s="7"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
-      <c r="R111" s="7">
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B112" s="7">
-        <v>1</v>
-      </c>
-      <c r="C112" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7">
+        <v>1</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -8293,18 +9410,20 @@
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
-      <c r="R112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7">
-        <v>1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B113" s="7">
+        <v>1</v>
+      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
@@ -8319,18 +9438,20 @@
       <c r="O113" s="7"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
-      <c r="R113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B114" s="7">
-        <v>1</v>
-      </c>
-      <c r="C114" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -8345,13 +9466,15 @@
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
-      <c r="R114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -8371,18 +9494,20 @@
       <c r="O115" s="7"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
-      <c r="R115" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B116" s="7">
-        <v>1</v>
-      </c>
-      <c r="C116" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7">
+        <v>1</v>
+      </c>
       <c r="D116" s="7">
         <v>1</v>
       </c>
@@ -8399,13 +9524,15 @@
       <c r="O116" s="7"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
-      <c r="R116" s="7">
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -8425,13 +9552,15 @@
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
-      <c r="R117" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -8451,18 +9580,20 @@
       <c r="O118" s="7"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
-      <c r="R118" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B119" s="7">
+        <v>1</v>
+      </c>
+      <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -8477,18 +9608,20 @@
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
-      <c r="R119" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B120" s="7">
+        <v>1</v>
+      </c>
+      <c r="C120" s="7"/>
       <c r="D120" s="7">
         <v>1</v>
       </c>
@@ -8505,18 +9638,20 @@
       <c r="O120" s="7"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
-      <c r="R120" s="7">
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B121" s="7">
-        <v>1</v>
-      </c>
-      <c r="C121" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
       <c r="D121" s="7">
         <v>1</v>
       </c>
@@ -8533,18 +9668,20 @@
       <c r="O121" s="7"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
-      <c r="R121" s="7">
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B122" s="7">
+        <v>1</v>
+      </c>
+      <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -8559,18 +9696,20 @@
       <c r="O122" s="7"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
-      <c r="R122" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B123" s="7">
-        <v>1</v>
-      </c>
-      <c r="C123" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -8585,18 +9724,20 @@
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
-      <c r="R123" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B124" s="7">
-        <v>1</v>
-      </c>
-      <c r="C124" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7">
+        <v>1</v>
+      </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -8611,13 +9752,15 @@
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
-      <c r="R124" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -8637,18 +9780,20 @@
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
-      <c r="R125" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B126" s="7">
+        <v>1</v>
+      </c>
+      <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -8663,18 +9808,20 @@
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
-      <c r="R126" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B127" s="7">
+        <v>1</v>
+      </c>
+      <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -8689,18 +9836,20 @@
       <c r="O127" s="7"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
-      <c r="R127" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R127" s="7"/>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B128" s="7">
-        <v>1</v>
-      </c>
-      <c r="C128" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7">
+        <v>1</v>
+      </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -8717,18 +9866,20 @@
       <c r="O128" s="7"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
-      <c r="R128" s="7">
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B129" s="7">
+        <v>1</v>
+      </c>
+      <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
@@ -8743,18 +9894,20 @@
       <c r="O129" s="7"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
-      <c r="R129" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R129" s="7"/>
+      <c r="S129" s="7"/>
+      <c r="T129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B130" s="7">
-        <v>1</v>
-      </c>
-      <c r="C130" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7">
+        <v>1</v>
+      </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7">
         <v>1</v>
@@ -8771,13 +9924,15 @@
       <c r="O130" s="7"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
-      <c r="R130" s="7">
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -8799,18 +9954,20 @@
       <c r="O131" s="7"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
-      <c r="R131" s="7">
+      <c r="R131" s="7"/>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B132" s="7">
+        <v>1</v>
+      </c>
+      <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7">
@@ -8827,64 +9984,732 @@
       <c r="O132" s="7"/>
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
-      <c r="R132" s="7">
+      <c r="R132" s="7"/>
+      <c r="S132" s="7"/>
+      <c r="T132" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="7">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="7"/>
+      <c r="T133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="7">
+        <v>1</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7">
+        <v>1</v>
+      </c>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7"/>
+      <c r="T136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7">
+        <v>1</v>
+      </c>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7">
+        <v>1</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7">
+        <v>1</v>
+      </c>
+      <c r="D139" s="7">
+        <v>1</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="7"/>
+      <c r="T139" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7">
+        <v>1</v>
+      </c>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="7">
+        <v>1</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="7"/>
+      <c r="T141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="7">
+        <v>1</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7">
+        <v>1</v>
+      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="7"/>
+      <c r="T142" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="7">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7">
+        <v>1</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="7"/>
+      <c r="T143" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7">
+        <v>1</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="7"/>
+      <c r="T144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" s="7">
+        <v>1</v>
+      </c>
+      <c r="C145" s="7">
+        <v>1</v>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="7"/>
+      <c r="T145" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7"/>
+      <c r="T146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7">
+        <v>1</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" s="7">
+        <v>1</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7">
+        <v>1</v>
+      </c>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="7"/>
+      <c r="T148" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7"/>
+      <c r="S149" s="7"/>
+      <c r="T149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" s="7">
+        <v>1</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
+      <c r="S150" s="7"/>
+      <c r="T150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7">
+        <v>1</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="7"/>
+      <c r="T151" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" s="7">
+        <v>1</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7">
+        <v>1</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7">
+        <v>1</v>
+      </c>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="7"/>
+      <c r="T152" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7">
+        <v>1</v>
+      </c>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7"/>
+      <c r="T153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="7">
+        <v>1</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7"/>
+      <c r="T154" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7">
+        <v>1</v>
+      </c>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="7"/>
+      <c r="T155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="7">
-        <v>45</v>
-      </c>
-      <c r="C133" s="7">
-        <v>40</v>
-      </c>
-      <c r="D133" s="7">
-        <v>31</v>
-      </c>
-      <c r="E133" s="7">
+      <c r="B156" s="7">
+        <v>50</v>
+      </c>
+      <c r="C156" s="7">
+        <v>49</v>
+      </c>
+      <c r="D156" s="7">
+        <v>37</v>
+      </c>
+      <c r="E156" s="7">
         <v>11</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F156" s="7">
+        <v>11</v>
+      </c>
+      <c r="G156" s="7">
         <v>7</v>
       </c>
-      <c r="G133" s="7">
-        <v>7</v>
-      </c>
-      <c r="H133" s="7">
-        <v>5</v>
-      </c>
-      <c r="I133" s="7">
+      <c r="H156" s="7">
+        <v>6</v>
+      </c>
+      <c r="I156" s="7">
+        <v>6</v>
+      </c>
+      <c r="J156" s="7">
         <v>4</v>
       </c>
-      <c r="J133" s="7">
+      <c r="K156" s="7">
         <v>4</v>
       </c>
-      <c r="K133" s="7">
+      <c r="L156" s="7">
         <v>3</v>
       </c>
-      <c r="L133" s="7">
+      <c r="M156" s="7">
         <v>2</v>
       </c>
-      <c r="M133" s="7">
-        <v>2</v>
-      </c>
-      <c r="N133" s="7">
-        <v>1</v>
-      </c>
-      <c r="O133" s="7">
-        <v>1</v>
-      </c>
-      <c r="P133" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="7">
-        <v>1</v>
-      </c>
-      <c r="R133" s="7">
-        <v>165</v>
+      <c r="N156" s="7">
+        <v>1</v>
+      </c>
+      <c r="O156" s="7">
+        <v>1</v>
+      </c>
+      <c r="P156" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="7">
+        <v>1</v>
+      </c>
+      <c r="R156" s="7">
+        <v>1</v>
+      </c>
+      <c r="S156" s="7">
+        <v>1</v>
+      </c>
+      <c r="T156" s="7">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/assets/others/《百家姓》姓的起源类型.xlsx
+++ b/assets/others/《百家姓》姓的起源类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/t5-2021-e/active-study/github.com/hustnzj/sinology_learning/assets/others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F8A00D-8139-1746-8DD7-ED6A7F11428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457CB3CC-73B5-DC47-B0F6-6B208DCD13CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26840" xr2:uid="{D5421D94-FC95-AB4B-AF5E-1DFA8DF35B20}"/>
+    <workbookView xWindow="12280" yWindow="500" windowWidth="38920" windowHeight="26840" activeTab="1" xr2:uid="{D5421D94-FC95-AB4B-AF5E-1DFA8DF35B20}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="228">
   <si>
     <t>赵</t>
   </si>
@@ -809,7 +809,281 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="47">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1011,13 +1285,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45500.418867939814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="196" xr:uid="{6613A909-EBE6-7540-AA86-E56BB4FC5A87}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45500.508999189813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="258" xr:uid="{6613A909-EBE6-7540-AA86-E56BB4FC5A87}">
   <cacheSource type="worksheet">
     <worksheetSource name="DynamicData"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="姓" numFmtId="0">
-      <sharedItems count="151">
+      <sharedItems count="194">
         <s v="赵"/>
         <s v="钱"/>
         <s v="孙"/>
@@ -1169,6 +1443,49 @@
         <s v="钟"/>
         <s v="徐"/>
         <s v="邱"/>
+        <s v="骆"/>
+        <s v="高"/>
+        <s v="夏"/>
+        <s v="蔡"/>
+        <s v="田"/>
+        <s v="樊"/>
+        <s v="胡"/>
+        <s v="凌"/>
+        <s v="霍"/>
+        <s v="虞"/>
+        <s v="万"/>
+        <s v="支"/>
+        <s v="柯"/>
+        <s v="昝"/>
+        <s v="管"/>
+        <s v="卢"/>
+        <s v="莫"/>
+        <s v="经"/>
+        <s v="房"/>
+        <s v="裘"/>
+        <s v="缪"/>
+        <s v="干"/>
+        <s v="解"/>
+        <s v="应"/>
+        <s v="宗"/>
+        <s v="丁"/>
+        <s v="宣"/>
+        <s v="贲"/>
+        <s v="邓"/>
+        <s v="郁"/>
+        <s v="单"/>
+        <s v="杭"/>
+        <s v="洪"/>
+        <s v="包"/>
+        <s v="诸"/>
+        <s v="左"/>
+        <s v="石"/>
+        <s v="崔"/>
+        <s v="吉"/>
+        <s v="钮"/>
+        <s v="龚"/>
+        <s v="程"/>
+        <s v="嵇"/>
       </sharedItems>
     </cacheField>
     <cacheField name="起源类型" numFmtId="0">
@@ -1199,7 +1516,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="起源类型 2" numFmtId="0">
-      <sharedItems count="20">
+      <sharedItems count="24">
         <s v="封邑"/>
         <s v="官职"/>
         <s v="先祖"/>
@@ -1218,6 +1535,10 @@
         <s v="出生地"/>
         <s v="国君谥号"/>
         <s v="职业"/>
+        <s v="技能"/>
+        <s v="古时同音"/>
+        <s v="民族融合"/>
+        <s v="音同"/>
         <s v="官职名" u="1"/>
         <s v="避帝王名讳" u="1"/>
       </sharedItems>
@@ -1232,7 +1553,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="196">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="258">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2212,16 +2533,326 @@
     <x v="150"/>
     <x v="18"/>
     <x v="6"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="18"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="18"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="18"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="18"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="18"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="18"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="18"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="18"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="18"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="18"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="18"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="18"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="18"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="18"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="18"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="18"/>
+    <x v="21"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FADE024-F829-5F48-9DCE-0AC7F1677A45}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="姓" colHeaderCaption="起源类型">
-  <location ref="A3:T156" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FADE024-F829-5F48-9DCE-0AC7F1677A45}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="姓" colHeaderCaption="起源类型">
+  <location ref="A3:X199" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="152">
+      <items count="195">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2373,6 +3004,49 @@
         <item x="148"/>
         <item x="149"/>
         <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2405,18 +3079,18 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="21">
+      <items count="25">
         <item x="2"/>
         <item x="7"/>
         <item x="1"/>
-        <item m="1" x="18"/>
+        <item m="1" x="22"/>
         <item x="0"/>
         <item x="12"/>
         <item x="11"/>
         <item x="5"/>
         <item x="8"/>
         <item x="3"/>
-        <item m="1" x="19"/>
+        <item m="1" x="23"/>
         <item x="4"/>
         <item x="10"/>
         <item x="9"/>
@@ -2426,6 +3100,10 @@
         <item x="16"/>
         <item x="6"/>
         <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -2442,7 +3120,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="152">
+  <rowItems count="195">
     <i>
       <x/>
     </i>
@@ -2895,6 +3573,135 @@
     </i>
     <i>
       <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
     </i>
     <i t="grand">
       <x/>
@@ -2903,7 +3710,7 @@
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="19">
+  <colItems count="23">
     <i>
       <x v="1"/>
     </i>
@@ -2920,43 +3727,55 @@
       <x v="5"/>
     </i>
     <i>
+      <x v="11"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="17"/>
     </i>
     <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="22"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
+      <x v="13"/>
+    </i>
+    <i>
       <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -2966,54 +3785,54 @@
     <dataField name=" " fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="13">
+    <format dxfId="41">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="39">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="37">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="36">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="31">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3030,12 +3849,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}" name="DynamicData" displayName="DynamicData" ref="A1:C259" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}" name="DynamicData" displayName="DynamicData" ref="A1:C259" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:C259" xr:uid="{8F16CFBA-91AB-844A-8A43-F5F388725724}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7E8823C1-B1D8-5045-ACD0-2142D9BBCFE3}" name="姓" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{DC84263E-F423-A146-95AF-6C63FDA51660}" name="起源类型" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E287FD57-70F9-EC42-AB55-C218B2084DB0}" name="起源类型 2" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7E8823C1-B1D8-5045-ACD0-2142D9BBCFE3}" name="姓" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{DC84263E-F423-A146-95AF-6C63FDA51660}" name="起源类型" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{E287FD57-70F9-EC42-AB55-C218B2084DB0}" name="起源类型 2" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3340,8 +4159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A13CF5-A04D-5E49-9081-B03C157052AA}">
   <dimension ref="A1:C259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -5573,13 +6392,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27DD485-606D-FD44-BE91-FAEDB4A34854}">
-  <dimension ref="A3:AL156"/>
+  <dimension ref="A3:AL199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomRight" activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5588,20 +6407,20 @@
     <col min="2" max="2" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -5625,10 +6444,6 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -5664,51 +6479,59 @@
         <v>55</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="O4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -5748,13 +6571,13 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
@@ -5796,13 +6619,13 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7">
         <v>2</v>
       </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
@@ -5844,13 +6667,13 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7">
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7">
         <v>3</v>
       </c>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
@@ -5877,10 +6700,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7">
@@ -5894,13 +6717,13 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7">
         <v>3</v>
       </c>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
@@ -5925,14 +6748,14 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -5942,13 +6765,13 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7">
         <v>2</v>
       </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
@@ -5988,13 +6811,13 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
@@ -6034,13 +6857,13 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
@@ -6074,19 +6897,19 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="7">
-        <v>1</v>
-      </c>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7">
+        <v>1</v>
+      </c>
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12"/>
@@ -6126,13 +6949,13 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7">
-        <v>1</v>
-      </c>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
@@ -6172,13 +6995,13 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14"/>
@@ -6220,13 +7043,13 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="7">
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7">
         <v>2</v>
       </c>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -6266,13 +7089,13 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
@@ -6312,13 +7135,13 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
@@ -6358,13 +7181,13 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
@@ -6406,13 +7229,13 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="7">
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7">
         <v>2</v>
       </c>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
@@ -6452,13 +7275,13 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
-      <c r="T20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
@@ -6498,13 +7321,13 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7">
-        <v>1</v>
-      </c>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
@@ -6544,13 +7367,13 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="7">
-        <v>1</v>
-      </c>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -6586,17 +7409,17 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7">
-        <v>1</v>
-      </c>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="7">
-        <v>1</v>
-      </c>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -6638,13 +7461,13 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
-      <c r="T24" s="7">
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7">
         <v>2</v>
       </c>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -6679,18 +7502,18 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="7">
-        <v>1</v>
-      </c>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7">
+        <v>1</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
       <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
@@ -6730,13 +7553,13 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="7">
-        <v>1</v>
-      </c>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -6761,10 +7584,10 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -6776,13 +7599,13 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="7">
-        <v>1</v>
-      </c>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7">
+        <v>1</v>
+      </c>
       <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27"/>
@@ -6822,13 +7645,13 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="7">
-        <v>1</v>
-      </c>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
       <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28"/>
@@ -6868,13 +7691,13 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="7">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7">
         <v>2</v>
       </c>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29"/>
@@ -6914,13 +7737,13 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="T30" s="7">
-        <v>1</v>
-      </c>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
@@ -6947,10 +7770,10 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -6960,13 +7783,13 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="7">
-        <v>1</v>
-      </c>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
@@ -7006,13 +7829,13 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="7">
-        <v>1</v>
-      </c>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
       <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
@@ -7054,13 +7877,13 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="7">
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7">
         <v>2</v>
       </c>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
@@ -7089,12 +7912,12 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="7">
-        <v>1</v>
-      </c>
+      <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -7102,13 +7925,13 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="7">
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7">
         <v>2</v>
       </c>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
       <c r="AA34"/>
@@ -7135,10 +7958,10 @@
       <c r="F35" s="7">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -7150,13 +7973,13 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="7">
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7">
         <v>2</v>
       </c>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
@@ -7196,13 +8019,13 @@
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="7">
-        <v>1</v>
-      </c>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
       <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36"/>
@@ -7242,13 +8065,13 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="7">
-        <v>1</v>
-      </c>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7">
+        <v>1</v>
+      </c>
       <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37"/>
@@ -7288,13 +8111,13 @@
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7">
-        <v>1</v>
-      </c>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7">
+        <v>1</v>
+      </c>
       <c r="Y38"/>
       <c r="Z38"/>
       <c r="AA38"/>
@@ -7334,7 +8157,11 @@
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="7">
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7349,12 +8176,12 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7">
-        <v>1</v>
-      </c>
+      <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -7362,7 +8189,11 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
-      <c r="T40" s="7">
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7392,7 +8223,11 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
-      <c r="T41" s="7">
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7">
         <v>2</v>
       </c>
     </row>
@@ -7422,7 +8257,11 @@
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
-      <c r="T42" s="7">
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7">
         <v>2</v>
       </c>
     </row>
@@ -7435,10 +8274,10 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -7450,7 +8289,11 @@
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="7">
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7478,7 +8321,11 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
-      <c r="T44" s="7">
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7508,7 +8355,11 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="7">
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7">
         <v>2</v>
       </c>
     </row>
@@ -7536,7 +8387,11 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="7">
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7566,7 +8421,11 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="7">
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7">
         <v>2</v>
       </c>
     </row>
@@ -7594,11 +8453,15 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
-      <c r="T48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>68</v>
       </c>
@@ -7622,11 +8485,15 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>69</v>
       </c>
@@ -7650,11 +8517,15 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>70</v>
       </c>
@@ -7678,11 +8549,15 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>71</v>
       </c>
@@ -7706,11 +8581,15 @@
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
-      <c r="T52" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -7734,11 +8613,15 @@
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>73</v>
       </c>
@@ -7749,10 +8632,10 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -7764,11 +8647,15 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
-      <c r="T54" s="7">
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
@@ -7792,11 +8679,15 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>75</v>
       </c>
@@ -7820,11 +8711,15 @@
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
-      <c r="T56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>76</v>
       </c>
@@ -7848,11 +8743,15 @@
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>77</v>
       </c>
@@ -7876,11 +8775,15 @@
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
-      <c r="T58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>78</v>
       </c>
@@ -7892,11 +8795,11 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="7">
-        <v>1</v>
-      </c>
+      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+      <c r="L59" s="7">
+        <v>1</v>
+      </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
@@ -7904,11 +8807,15 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>80</v>
       </c>
@@ -7932,11 +8839,15 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
-      <c r="T60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>81</v>
       </c>
@@ -7960,11 +8871,15 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
-      <c r="T61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
@@ -7988,11 +8903,15 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
-      <c r="T62" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>83</v>
       </c>
@@ -8004,11 +8923,11 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="7">
-        <v>1</v>
-      </c>
+      <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="L63" s="7">
+        <v>1</v>
+      </c>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -8016,11 +8935,15 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
-      <c r="T63" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>84</v>
       </c>
@@ -8044,11 +8967,15 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
-      <c r="T64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>85</v>
       </c>
@@ -8072,11 +8999,15 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
-      <c r="T65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>86</v>
       </c>
@@ -8100,11 +9031,15 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
-      <c r="T66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>87</v>
       </c>
@@ -8128,11 +9063,15 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
-      <c r="T67" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>88</v>
       </c>
@@ -8156,11 +9095,15 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
-      <c r="T68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>89</v>
       </c>
@@ -8184,11 +9127,15 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
-      <c r="T69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>90</v>
       </c>
@@ -8212,11 +9159,15 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
-      <c r="T70" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>91</v>
       </c>
@@ -8240,11 +9191,15 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
-      <c r="T71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>92</v>
       </c>
@@ -8268,11 +9223,15 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
-      <c r="T72" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>93</v>
       </c>
@@ -8281,10 +9240,10 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="7">
-        <v>1</v>
-      </c>
-      <c r="H73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -8296,11 +9255,15 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
-      <c r="T73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>94</v>
       </c>
@@ -8311,10 +9274,10 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7">
-        <v>1</v>
-      </c>
-      <c r="J74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -8324,11 +9287,15 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>95</v>
       </c>
@@ -8337,10 +9304,10 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7">
-        <v>1</v>
-      </c>
+      <c r="G75" s="7">
+        <v>1</v>
+      </c>
+      <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
@@ -8352,11 +9319,15 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
-      <c r="T75" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>96</v>
       </c>
@@ -8380,11 +9351,15 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
-      <c r="T76" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -8408,11 +9383,15 @@
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
-      <c r="T77" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -8427,20 +9406,24 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="7">
-        <v>1</v>
-      </c>
-      <c r="N78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7">
+        <v>1</v>
+      </c>
       <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>100</v>
       </c>
@@ -8464,11 +9447,15 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
-      <c r="T79" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>101</v>
       </c>
@@ -8492,11 +9479,15 @@
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
-      <c r="T80" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>102</v>
       </c>
@@ -8520,11 +9511,15 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
-      <c r="T81" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>103</v>
       </c>
@@ -8535,10 +9530,10 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="7">
-        <v>1</v>
-      </c>
-      <c r="H82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
@@ -8550,11 +9545,15 @@
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
-      <c r="T82" s="7">
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>104</v>
       </c>
@@ -8567,16 +9566,16 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="7">
-        <v>1</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="7">
-        <v>1</v>
-      </c>
+      <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
@@ -8584,11 +9583,15 @@
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
-      <c r="T83" s="7">
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>105</v>
       </c>
@@ -8601,10 +9604,10 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7">
-        <v>1</v>
-      </c>
-      <c r="J84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7">
+        <v>1</v>
+      </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -8614,11 +9617,15 @@
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
-      <c r="T84" s="7">
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -8642,11 +9649,15 @@
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
-      <c r="T85" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -8670,11 +9681,15 @@
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
-      <c r="T86" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>108</v>
       </c>
@@ -8698,11 +9713,15 @@
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
-      <c r="T87" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>109</v>
       </c>
@@ -8728,11 +9747,15 @@
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
-      <c r="T88" s="7">
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>110</v>
       </c>
@@ -8756,11 +9779,15 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
-      <c r="T89" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>111</v>
       </c>
@@ -8784,11 +9811,15 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
-      <c r="T90" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>112</v>
       </c>
@@ -8812,11 +9843,15 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
-      <c r="T91" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>113</v>
       </c>
@@ -8840,11 +9875,15 @@
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
-      <c r="T92" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>114</v>
       </c>
@@ -8868,11 +9907,15 @@
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
-      <c r="T93" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>115</v>
       </c>
@@ -8896,11 +9939,15 @@
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
-      <c r="T94" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>116</v>
       </c>
@@ -8926,11 +9973,15 @@
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
-      <c r="T95" s="7">
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>117</v>
       </c>
@@ -8954,11 +10005,15 @@
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
-      <c r="T96" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>118</v>
       </c>
@@ -8982,11 +10037,15 @@
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
-      <c r="T97" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>119</v>
       </c>
@@ -9010,11 +10069,15 @@
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
-      <c r="T98" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>120</v>
       </c>
@@ -9038,11 +10101,15 @@
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
-      <c r="T99" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>121</v>
       </c>
@@ -9066,11 +10133,15 @@
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
-      <c r="T100" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>122</v>
       </c>
@@ -9096,11 +10167,15 @@
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
-      <c r="T101" s="7">
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>123</v>
       </c>
@@ -9124,11 +10199,15 @@
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
-      <c r="T102" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>124</v>
       </c>
@@ -9152,11 +10231,15 @@
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
-      <c r="T103" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>125</v>
       </c>
@@ -9182,11 +10265,15 @@
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
-      <c r="T104" s="7">
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>126</v>
       </c>
@@ -9207,14 +10294,18 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="7">
-        <v>1</v>
-      </c>
+      <c r="S105" s="7"/>
       <c r="T105" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>128</v>
       </c>
@@ -9238,11 +10329,15 @@
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
-      <c r="T106" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>129</v>
       </c>
@@ -9251,10 +10346,10 @@
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7">
-        <v>1</v>
-      </c>
+      <c r="G107" s="7">
+        <v>1</v>
+      </c>
+      <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -9266,11 +10361,15 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
-      <c r="T107" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>130</v>
       </c>
@@ -9296,11 +10395,15 @@
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
-      <c r="T108" s="7">
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>131</v>
       </c>
@@ -9324,11 +10427,15 @@
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
-      <c r="T109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -9354,11 +10461,15 @@
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
-      <c r="T110" s="7">
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>133</v>
       </c>
@@ -9384,11 +10495,15 @@
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
-      <c r="T111" s="7">
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>134</v>
       </c>
@@ -9412,11 +10527,15 @@
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
-      <c r="T112" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>135</v>
       </c>
@@ -9440,11 +10559,15 @@
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
-      <c r="T113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>136</v>
       </c>
@@ -9468,11 +10591,15 @@
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
-      <c r="T114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>137</v>
       </c>
@@ -9496,11 +10623,15 @@
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
-      <c r="T115" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>138</v>
       </c>
@@ -9526,11 +10657,15 @@
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
-      <c r="T116" s="7">
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>139</v>
       </c>
@@ -9545,20 +10680,24 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="7">
-        <v>1</v>
-      </c>
-      <c r="N117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7">
+        <v>1</v>
+      </c>
       <c r="O117" s="7"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
-      <c r="T117" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>140</v>
       </c>
@@ -9582,11 +10721,15 @@
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
-      <c r="T118" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>141</v>
       </c>
@@ -9610,11 +10753,15 @@
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
-      <c r="T119" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>142</v>
       </c>
@@ -9640,11 +10787,15 @@
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
-      <c r="T120" s="7">
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+      <c r="X120" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>143</v>
       </c>
@@ -9670,11 +10821,15 @@
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
-      <c r="T121" s="7">
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>144</v>
       </c>
@@ -9698,11 +10853,15 @@
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
-      <c r="T122" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>145</v>
       </c>
@@ -9726,11 +10885,15 @@
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
-      <c r="T123" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>146</v>
       </c>
@@ -9754,11 +10917,15 @@
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
-      <c r="T124" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>147</v>
       </c>
@@ -9782,11 +10949,15 @@
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
-      <c r="T125" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>148</v>
       </c>
@@ -9810,11 +10981,15 @@
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
-      <c r="T126" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+      <c r="X126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>149</v>
       </c>
@@ -9838,11 +11013,15 @@
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
-      <c r="T127" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T127" s="7"/>
+      <c r="U127" s="7"/>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>150</v>
       </c>
@@ -9853,10 +11032,10 @@
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="7">
-        <v>1</v>
-      </c>
-      <c r="H128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7">
+        <v>1</v>
+      </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
@@ -9868,11 +11047,15 @@
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
-      <c r="T128" s="7">
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+      <c r="X128" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>151</v>
       </c>
@@ -9896,11 +11079,15 @@
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
-      <c r="T129" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7"/>
+      <c r="X129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>152</v>
       </c>
@@ -9926,11 +11113,15 @@
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
-      <c r="T130" s="7">
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+      <c r="W130" s="7"/>
+      <c r="X130" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>153</v>
       </c>
@@ -9956,11 +11147,15 @@
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
-      <c r="T131" s="7">
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>154</v>
       </c>
@@ -9986,11 +11181,15 @@
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
-      <c r="T132" s="7">
+      <c r="T132" s="7"/>
+      <c r="U132" s="7"/>
+      <c r="V132" s="7"/>
+      <c r="W132" s="7"/>
+      <c r="X132" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>155</v>
       </c>
@@ -10014,11 +11213,15 @@
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
-      <c r="T133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>156</v>
       </c>
@@ -10042,11 +11245,15 @@
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
-      <c r="T134" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+      <c r="X134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>157</v>
       </c>
@@ -10070,11 +11277,15 @@
       <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
-      <c r="T135" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>158</v>
       </c>
@@ -10089,20 +11300,24 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7">
-        <v>1</v>
-      </c>
+      <c r="M136" s="7">
+        <v>1</v>
+      </c>
+      <c r="N136" s="7"/>
       <c r="O136" s="7"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
-      <c r="T136" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T136" s="7"/>
+      <c r="U136" s="7"/>
+      <c r="V136" s="7"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>160</v>
       </c>
@@ -10113,10 +11328,10 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="7">
-        <v>1</v>
-      </c>
-      <c r="J137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7">
+        <v>1</v>
+      </c>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
@@ -10126,11 +11341,15 @@
       <c r="Q137" s="7"/>
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
-      <c r="T137" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>161</v>
       </c>
@@ -10154,11 +11373,15 @@
       <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
-      <c r="T138" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T138" s="7"/>
+      <c r="U138" s="7"/>
+      <c r="V138" s="7"/>
+      <c r="W138" s="7"/>
+      <c r="X138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>162</v>
       </c>
@@ -10184,11 +11407,15 @@
       <c r="Q139" s="7"/>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
-      <c r="T139" s="7">
+      <c r="T139" s="7"/>
+      <c r="U139" s="7"/>
+      <c r="V139" s="7"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>163</v>
       </c>
@@ -10200,11 +11427,11 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
-      <c r="J140" s="7">
-        <v>1</v>
-      </c>
+      <c r="J140" s="7"/>
       <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
+      <c r="L140" s="7">
+        <v>1</v>
+      </c>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
@@ -10212,11 +11439,15 @@
       <c r="Q140" s="7"/>
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
-      <c r="T140" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>164</v>
       </c>
@@ -10240,11 +11471,15 @@
       <c r="Q141" s="7"/>
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
-      <c r="T141" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T141" s="7"/>
+      <c r="U141" s="7"/>
+      <c r="V141" s="7"/>
+      <c r="W141" s="7"/>
+      <c r="X141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>165</v>
       </c>
@@ -10270,11 +11505,15 @@
       <c r="Q142" s="7"/>
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
-      <c r="T142" s="7">
+      <c r="T142" s="7"/>
+      <c r="U142" s="7"/>
+      <c r="V142" s="7"/>
+      <c r="W142" s="7"/>
+      <c r="X142" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>166</v>
       </c>
@@ -10300,11 +11539,15 @@
       <c r="Q143" s="7"/>
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
-      <c r="T143" s="7">
+      <c r="T143" s="7"/>
+      <c r="U143" s="7"/>
+      <c r="V143" s="7"/>
+      <c r="W143" s="7"/>
+      <c r="X143" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>167</v>
       </c>
@@ -10328,11 +11571,15 @@
       <c r="Q144" s="7"/>
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
-      <c r="T144" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T144" s="7"/>
+      <c r="U144" s="7"/>
+      <c r="V144" s="7"/>
+      <c r="W144" s="7"/>
+      <c r="X144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>168</v>
       </c>
@@ -10358,11 +11605,15 @@
       <c r="Q145" s="7"/>
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
-      <c r="T145" s="7">
+      <c r="T145" s="7"/>
+      <c r="U145" s="7"/>
+      <c r="V145" s="7"/>
+      <c r="W145" s="7"/>
+      <c r="X145" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>169</v>
       </c>
@@ -10386,11 +11637,15 @@
       <c r="Q146" s="7"/>
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
-      <c r="T146" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T146" s="7"/>
+      <c r="U146" s="7"/>
+      <c r="V146" s="7"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>170</v>
       </c>
@@ -10414,11 +11669,15 @@
       <c r="Q147" s="7"/>
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
-      <c r="T147" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>171</v>
       </c>
@@ -10432,11 +11691,11 @@
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
-      <c r="J148" s="7">
-        <v>1</v>
-      </c>
+      <c r="J148" s="7"/>
       <c r="K148" s="7"/>
-      <c r="L148" s="7"/>
+      <c r="L148" s="7">
+        <v>1</v>
+      </c>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
       <c r="O148" s="7"/>
@@ -10444,11 +11703,15 @@
       <c r="Q148" s="7"/>
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
-      <c r="T148" s="7">
+      <c r="T148" s="7"/>
+      <c r="U148" s="7"/>
+      <c r="V148" s="7"/>
+      <c r="W148" s="7"/>
+      <c r="X148" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>172</v>
       </c>
@@ -10472,11 +11735,15 @@
       <c r="Q149" s="7"/>
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
-      <c r="T149" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T149" s="7"/>
+      <c r="U149" s="7"/>
+      <c r="V149" s="7"/>
+      <c r="W149" s="7"/>
+      <c r="X149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>173</v>
       </c>
@@ -10500,11 +11767,15 @@
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
-      <c r="T150" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T150" s="7"/>
+      <c r="U150" s="7"/>
+      <c r="V150" s="7"/>
+      <c r="W150" s="7"/>
+      <c r="X150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>174</v>
       </c>
@@ -10530,11 +11801,15 @@
       <c r="Q151" s="7"/>
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
-      <c r="T151" s="7">
+      <c r="T151" s="7"/>
+      <c r="U151" s="7"/>
+      <c r="V151" s="7"/>
+      <c r="W151" s="7"/>
+      <c r="X151" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>175</v>
       </c>
@@ -10555,18 +11830,22 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-      <c r="O152" s="7">
-        <v>1</v>
-      </c>
-      <c r="P152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7">
+        <v>1</v>
+      </c>
       <c r="Q152" s="7"/>
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
-      <c r="T152" s="7">
+      <c r="T152" s="7"/>
+      <c r="U152" s="7"/>
+      <c r="V152" s="7"/>
+      <c r="W152" s="7"/>
+      <c r="X152" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>177</v>
       </c>
@@ -10575,10 +11854,10 @@
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7">
-        <v>1</v>
-      </c>
+      <c r="G153" s="7">
+        <v>1</v>
+      </c>
+      <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
@@ -10590,11 +11869,15 @@
       <c r="Q153" s="7"/>
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
-      <c r="T153" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T153" s="7"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>178</v>
       </c>
@@ -10618,11 +11901,15 @@
       <c r="Q154" s="7"/>
       <c r="R154" s="7"/>
       <c r="S154" s="7"/>
-      <c r="T154" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T154" s="7"/>
+      <c r="U154" s="7"/>
+      <c r="V154" s="7"/>
+      <c r="W154" s="7"/>
+      <c r="X154" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>179</v>
       </c>
@@ -10633,10 +11920,10 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="7">
-        <v>1</v>
-      </c>
-      <c r="J155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7">
+        <v>1</v>
+      </c>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
@@ -10646,70 +11933,1500 @@
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
-      <c r="T155" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T155" s="7"/>
+      <c r="U155" s="7"/>
+      <c r="V155" s="7"/>
+      <c r="W155" s="7"/>
+      <c r="X155" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="7">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7">
+        <v>1</v>
+      </c>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="7"/>
+      <c r="T156" s="7"/>
+      <c r="U156" s="7"/>
+      <c r="V156" s="7"/>
+      <c r="W156" s="7"/>
+      <c r="X156" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7">
+        <v>1</v>
+      </c>
+      <c r="D157" s="7">
+        <v>1</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="7"/>
+      <c r="T157" s="7"/>
+      <c r="U157" s="7"/>
+      <c r="V157" s="7"/>
+      <c r="W157" s="7"/>
+      <c r="X157" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="7">
+        <v>1</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7">
+        <v>1</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="7"/>
+      <c r="V158" s="7"/>
+      <c r="W158" s="7"/>
+      <c r="X158" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="7">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7">
+        <v>1</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="7"/>
+      <c r="V160" s="7"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7">
+        <v>1</v>
+      </c>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="7"/>
+      <c r="V161" s="7"/>
+      <c r="W161" s="7"/>
+      <c r="X161" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7">
+        <v>1</v>
+      </c>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="7"/>
+      <c r="T162" s="7"/>
+      <c r="U162" s="7"/>
+      <c r="V162" s="7"/>
+      <c r="W162" s="7"/>
+      <c r="X162" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7">
+        <v>1</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="7"/>
+      <c r="T163" s="7"/>
+      <c r="U163" s="7"/>
+      <c r="V163" s="7"/>
+      <c r="W163" s="7"/>
+      <c r="X163" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164" s="7">
+        <v>1</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="7"/>
+      <c r="T164" s="7"/>
+      <c r="U164" s="7"/>
+      <c r="V164" s="7"/>
+      <c r="W164" s="7"/>
+      <c r="X164" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="7">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="7"/>
+      <c r="T165" s="7"/>
+      <c r="U165" s="7"/>
+      <c r="V165" s="7"/>
+      <c r="W165" s="7"/>
+      <c r="X165" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7">
+        <v>1</v>
+      </c>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="7"/>
+      <c r="T166" s="7"/>
+      <c r="U166" s="7"/>
+      <c r="V166" s="7"/>
+      <c r="W166" s="7"/>
+      <c r="X166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" s="7">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="7"/>
+      <c r="T167" s="7"/>
+      <c r="U167" s="7"/>
+      <c r="V167" s="7"/>
+      <c r="W167" s="7"/>
+      <c r="X167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7">
+        <v>1</v>
+      </c>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="7"/>
+      <c r="V168" s="7"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7">
+        <v>1</v>
+      </c>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+      <c r="U169" s="7"/>
+      <c r="V169" s="7"/>
+      <c r="W169" s="7"/>
+      <c r="X169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7">
+        <v>1</v>
+      </c>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="7"/>
+      <c r="V170" s="7"/>
+      <c r="W170" s="7"/>
+      <c r="X170" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171" s="7">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7">
+        <v>1</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+      <c r="R171" s="7"/>
+      <c r="S171" s="7"/>
+      <c r="T171" s="7"/>
+      <c r="U171" s="7"/>
+      <c r="V171" s="7"/>
+      <c r="W171" s="7"/>
+      <c r="X171" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7">
+        <v>1</v>
+      </c>
+      <c r="F172" s="7">
+        <v>1</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7"/>
+      <c r="T172" s="7"/>
+      <c r="U172" s="7"/>
+      <c r="V172" s="7"/>
+      <c r="W172" s="7"/>
+      <c r="X172" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7">
+        <v>1</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7">
+        <v>1</v>
+      </c>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7">
+        <v>1</v>
+      </c>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+      <c r="R173" s="7"/>
+      <c r="S173" s="7"/>
+      <c r="T173" s="7"/>
+      <c r="U173" s="7"/>
+      <c r="V173" s="7"/>
+      <c r="W173" s="7"/>
+      <c r="X173" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174" s="7">
+        <v>1</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7"/>
+      <c r="T174" s="7"/>
+      <c r="U174" s="7"/>
+      <c r="V174" s="7"/>
+      <c r="W174" s="7"/>
+      <c r="X174" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7">
+        <v>1</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7">
+        <v>1</v>
+      </c>
+      <c r="S175" s="7"/>
+      <c r="T175" s="7"/>
+      <c r="U175" s="7"/>
+      <c r="V175" s="7"/>
+      <c r="W175" s="7"/>
+      <c r="X175" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7">
+        <v>1</v>
+      </c>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+      <c r="T176" s="7"/>
+      <c r="U176" s="7"/>
+      <c r="V176" s="7"/>
+      <c r="W176" s="7"/>
+      <c r="X176" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B177" s="7">
+        <v>1</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7">
+        <v>1</v>
+      </c>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="7"/>
+      <c r="V177" s="7"/>
+      <c r="W177" s="7"/>
+      <c r="X177" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="7"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="7"/>
+      <c r="V178" s="7"/>
+      <c r="W178" s="7"/>
+      <c r="X178" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" s="7">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7"/>
+      <c r="T179" s="7"/>
+      <c r="U179" s="7"/>
+      <c r="V179" s="7"/>
+      <c r="W179" s="7"/>
+      <c r="X179" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7">
+        <v>1</v>
+      </c>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+      <c r="V180" s="7"/>
+      <c r="W180" s="7"/>
+      <c r="X180" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" s="7">
+        <v>1</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7">
+        <v>1</v>
+      </c>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7">
+        <v>1</v>
+      </c>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+      <c r="R181" s="7"/>
+      <c r="S181" s="7"/>
+      <c r="T181" s="7"/>
+      <c r="U181" s="7"/>
+      <c r="V181" s="7"/>
+      <c r="W181" s="7"/>
+      <c r="X181" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7">
+        <v>1</v>
+      </c>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7"/>
+      <c r="T182" s="7"/>
+      <c r="U182" s="7"/>
+      <c r="V182" s="7"/>
+      <c r="W182" s="7"/>
+      <c r="X182" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7">
+        <v>1</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="7"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="7"/>
+      <c r="T183" s="7"/>
+      <c r="U183" s="7"/>
+      <c r="V183" s="7"/>
+      <c r="W183" s="7"/>
+      <c r="X183" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184" s="7">
+        <v>1</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7">
+        <v>1</v>
+      </c>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="7"/>
+      <c r="T184" s="7"/>
+      <c r="U184" s="7"/>
+      <c r="V184" s="7"/>
+      <c r="W184" s="7"/>
+      <c r="X184" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="7">
+        <v>1</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7">
+        <v>1</v>
+      </c>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7"/>
+      <c r="T185" s="7"/>
+      <c r="U185" s="7"/>
+      <c r="V185" s="7"/>
+      <c r="W185" s="7"/>
+      <c r="X185" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" s="7"/>
+      <c r="C186" s="7">
+        <v>1</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7"/>
+      <c r="T186" s="7"/>
+      <c r="U186" s="7"/>
+      <c r="V186" s="7"/>
+      <c r="W186" s="7"/>
+      <c r="X186" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" s="7">
+        <v>1</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="7"/>
+      <c r="R187" s="7"/>
+      <c r="S187" s="7"/>
+      <c r="T187" s="7"/>
+      <c r="U187" s="7"/>
+      <c r="V187" s="7"/>
+      <c r="W187" s="7"/>
+      <c r="X187" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B188" s="7"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7">
+        <v>1</v>
+      </c>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7"/>
+      <c r="T188" s="7"/>
+      <c r="U188" s="7"/>
+      <c r="V188" s="7"/>
+      <c r="W188" s="7"/>
+      <c r="X188" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B189" s="7"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7">
+        <v>1</v>
+      </c>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7">
+        <v>1</v>
+      </c>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="7"/>
+      <c r="T189" s="7"/>
+      <c r="U189" s="7"/>
+      <c r="V189" s="7"/>
+      <c r="W189" s="7"/>
+      <c r="X189" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7">
+        <v>1</v>
+      </c>
+      <c r="D190" s="7">
+        <v>1</v>
+      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
+      <c r="T190" s="7"/>
+      <c r="U190" s="7"/>
+      <c r="V190" s="7"/>
+      <c r="W190" s="7"/>
+      <c r="X190" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7">
+        <v>1</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7"/>
+      <c r="T191" s="7"/>
+      <c r="U191" s="7"/>
+      <c r="V191" s="7"/>
+      <c r="W191" s="7"/>
+      <c r="X191" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B192" s="7"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7">
+        <v>1</v>
+      </c>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7">
+        <v>1</v>
+      </c>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7"/>
+      <c r="T192" s="7"/>
+      <c r="U192" s="7"/>
+      <c r="V192" s="7"/>
+      <c r="W192" s="7"/>
+      <c r="X192" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7">
+        <v>1</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7">
+        <v>1</v>
+      </c>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="7"/>
+      <c r="R193" s="7"/>
+      <c r="S193" s="7"/>
+      <c r="T193" s="7"/>
+      <c r="U193" s="7"/>
+      <c r="V193" s="7"/>
+      <c r="W193" s="7"/>
+      <c r="X193" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7">
+        <v>1</v>
+      </c>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="7"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="7"/>
+      <c r="T194" s="7"/>
+      <c r="U194" s="7"/>
+      <c r="V194" s="7"/>
+      <c r="W194" s="7"/>
+      <c r="X194" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7">
+        <v>1</v>
+      </c>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="7"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="7"/>
+      <c r="T195" s="7"/>
+      <c r="U195" s="7"/>
+      <c r="V195" s="7"/>
+      <c r="W195" s="7"/>
+      <c r="X195" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7">
+        <v>1</v>
+      </c>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="7"/>
+      <c r="T196" s="7"/>
+      <c r="U196" s="7"/>
+      <c r="V196" s="7"/>
+      <c r="W196" s="7"/>
+      <c r="X196" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B197" s="7">
+        <v>1</v>
+      </c>
+      <c r="C197" s="7">
+        <v>1</v>
+      </c>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="7"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="7"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="7"/>
+      <c r="R197" s="7"/>
+      <c r="S197" s="7"/>
+      <c r="T197" s="7"/>
+      <c r="U197" s="7"/>
+      <c r="V197" s="7"/>
+      <c r="W197" s="7"/>
+      <c r="X197" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="7"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="7"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="7"/>
+      <c r="R198" s="7"/>
+      <c r="S198" s="7">
+        <v>1</v>
+      </c>
+      <c r="T198" s="7"/>
+      <c r="U198" s="7"/>
+      <c r="V198" s="7"/>
+      <c r="W198" s="7"/>
+      <c r="X198" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="7">
-        <v>50</v>
-      </c>
-      <c r="C156" s="7">
-        <v>49</v>
-      </c>
-      <c r="D156" s="7">
-        <v>37</v>
-      </c>
-      <c r="E156" s="7">
-        <v>11</v>
-      </c>
-      <c r="F156" s="7">
-        <v>11</v>
-      </c>
-      <c r="G156" s="7">
+      <c r="B199" s="7">
+        <v>65</v>
+      </c>
+      <c r="C199" s="7">
+        <v>59</v>
+      </c>
+      <c r="D199" s="7">
+        <v>54</v>
+      </c>
+      <c r="E199" s="7">
+        <v>15</v>
+      </c>
+      <c r="F199" s="7">
+        <v>12</v>
+      </c>
+      <c r="G199" s="7">
+        <v>10</v>
+      </c>
+      <c r="H199" s="7">
+        <v>8</v>
+      </c>
+      <c r="I199" s="7">
         <v>7</v>
       </c>
-      <c r="H156" s="7">
+      <c r="J199" s="7">
         <v>6</v>
       </c>
-      <c r="I156" s="7">
-        <v>6</v>
-      </c>
-      <c r="J156" s="7">
+      <c r="K199" s="7">
         <v>4</v>
       </c>
-      <c r="K156" s="7">
+      <c r="L199" s="7">
         <v>4</v>
       </c>
-      <c r="L156" s="7">
-        <v>3</v>
-      </c>
-      <c r="M156" s="7">
+      <c r="M199" s="7">
         <v>2</v>
       </c>
-      <c r="N156" s="7">
-        <v>1</v>
-      </c>
-      <c r="O156" s="7">
-        <v>1</v>
-      </c>
-      <c r="P156" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q156" s="7">
-        <v>1</v>
-      </c>
-      <c r="R156" s="7">
-        <v>1</v>
-      </c>
-      <c r="S156" s="7">
-        <v>1</v>
-      </c>
-      <c r="T156" s="7">
-        <v>196</v>
+      <c r="N199" s="7">
+        <v>2</v>
+      </c>
+      <c r="O199" s="7">
+        <v>2</v>
+      </c>
+      <c r="P199" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="7">
+        <v>1</v>
+      </c>
+      <c r="R199" s="7">
+        <v>1</v>
+      </c>
+      <c r="S199" s="7">
+        <v>1</v>
+      </c>
+      <c r="T199" s="7">
+        <v>1</v>
+      </c>
+      <c r="U199" s="7">
+        <v>1</v>
+      </c>
+      <c r="V199" s="7">
+        <v>1</v>
+      </c>
+      <c r="W199" s="7">
+        <v>1</v>
+      </c>
+      <c r="X199" s="7">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
